--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Efnb1-Ephb3.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Efnb1-Ephb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.49593353969124</v>
+        <v>7.079689000000001</v>
       </c>
       <c r="H2">
-        <v>4.49593353969124</v>
+        <v>21.239067</v>
       </c>
       <c r="I2">
-        <v>0.3970958111020147</v>
+        <v>0.5033576067109902</v>
       </c>
       <c r="J2">
-        <v>0.3970958111020147</v>
+        <v>0.5033576067109902</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>17.1803172271836</v>
+        <v>0.143611</v>
       </c>
       <c r="N2">
-        <v>17.1803172271836</v>
+        <v>0.430833</v>
       </c>
       <c r="O2">
-        <v>0.8289176599706376</v>
+        <v>0.006856337892517759</v>
       </c>
       <c r="P2">
-        <v>0.8289176599706376</v>
+        <v>0.006856337892517758</v>
       </c>
       <c r="Q2">
-        <v>77.24156444422995</v>
+        <v>1.016721216979</v>
       </c>
       <c r="R2">
-        <v>77.24156444422995</v>
+        <v>9.150490952811001</v>
       </c>
       <c r="S2">
-        <v>0.3291597305228244</v>
+        <v>0.003451189832379613</v>
       </c>
       <c r="T2">
-        <v>0.3291597305228244</v>
+        <v>0.003451189832379613</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.49593353969124</v>
+        <v>7.079689000000001</v>
       </c>
       <c r="H3">
-        <v>4.49593353969124</v>
+        <v>21.239067</v>
       </c>
       <c r="I3">
-        <v>0.3970958111020147</v>
+        <v>0.5033576067109902</v>
       </c>
       <c r="J3">
-        <v>0.3970958111020147</v>
+        <v>0.5033576067109902</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.54588762625404</v>
+        <v>17.192962</v>
       </c>
       <c r="N3">
-        <v>3.54588762625404</v>
+        <v>51.578886</v>
       </c>
       <c r="O3">
-        <v>0.1710823400293624</v>
+        <v>0.8208337581746376</v>
       </c>
       <c r="P3">
-        <v>0.1710823400293624</v>
+        <v>0.8208337581746377</v>
       </c>
       <c r="Q3">
-        <v>15.9420751068517</v>
+        <v>121.720823948818</v>
       </c>
       <c r="R3">
-        <v>15.9420751068517</v>
+        <v>1095.487415539362</v>
       </c>
       <c r="S3">
-        <v>0.06793608057919034</v>
+        <v>0.4131729160223732</v>
       </c>
       <c r="T3">
-        <v>0.06793608057919034</v>
+        <v>0.4131729160223733</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,55 +652,55 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.02018462565816</v>
+        <v>7.079689000000001</v>
       </c>
       <c r="H4">
-        <v>4.02018462565816</v>
+        <v>21.239067</v>
       </c>
       <c r="I4">
-        <v>0.3550760838905127</v>
+        <v>0.5033576067109902</v>
       </c>
       <c r="J4">
-        <v>0.3550760838905127</v>
+        <v>0.5033576067109902</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.1803172271836</v>
+        <v>3.609156666666667</v>
       </c>
       <c r="N4">
-        <v>17.1803172271836</v>
+        <v>10.82747</v>
       </c>
       <c r="O4">
-        <v>0.8289176599706376</v>
+        <v>0.1723099039328446</v>
       </c>
       <c r="P4">
-        <v>0.8289176599706376</v>
+        <v>0.1723099039328446</v>
       </c>
       <c r="Q4">
-        <v>69.06804718065355</v>
+        <v>25.55170675227667</v>
       </c>
       <c r="R4">
-        <v>69.06804718065355</v>
+        <v>229.96536077049</v>
       </c>
       <c r="S4">
-        <v>0.2943288365700616</v>
+        <v>0.08673350085623729</v>
       </c>
       <c r="T4">
-        <v>0.2943288365700616</v>
+        <v>0.08673350085623729</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,60 +714,60 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.02018462565816</v>
+        <v>4.058683666666667</v>
       </c>
       <c r="H5">
-        <v>4.02018462565816</v>
+        <v>12.176051</v>
       </c>
       <c r="I5">
-        <v>0.3550760838905127</v>
+        <v>0.2885676612136944</v>
       </c>
       <c r="J5">
-        <v>0.3550760838905127</v>
+        <v>0.2885676612136945</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>3.54588762625404</v>
+        <v>0.143611</v>
       </c>
       <c r="N5">
-        <v>3.54588762625404</v>
+        <v>0.430833</v>
       </c>
       <c r="O5">
-        <v>0.1710823400293624</v>
+        <v>0.006856337892517759</v>
       </c>
       <c r="P5">
-        <v>0.1710823400293624</v>
+        <v>0.006856337892517758</v>
       </c>
       <c r="Q5">
-        <v>14.255122919378</v>
+        <v>0.5828716200536668</v>
       </c>
       <c r="R5">
-        <v>14.255122919378</v>
+        <v>5.245844580483</v>
       </c>
       <c r="S5">
-        <v>0.06074724732045111</v>
+        <v>0.00197851739013468</v>
       </c>
       <c r="T5">
-        <v>0.06074724732045111</v>
+        <v>0.001978517390134681</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -779,57 +779,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.408000613680069</v>
+        <v>4.058683666666667</v>
       </c>
       <c r="H6">
-        <v>0.408000613680069</v>
+        <v>12.176051</v>
       </c>
       <c r="I6">
-        <v>0.03603597188194495</v>
+        <v>0.2885676612136944</v>
       </c>
       <c r="J6">
-        <v>0.03603597188194495</v>
+        <v>0.2885676612136945</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.1803172271836</v>
+        <v>17.192962</v>
       </c>
       <c r="N6">
-        <v>17.1803172271836</v>
+        <v>51.578886</v>
       </c>
       <c r="O6">
-        <v>0.8289176599706376</v>
+        <v>0.8208337581746376</v>
       </c>
       <c r="P6">
-        <v>0.8289176599706376</v>
+        <v>0.8208337581746377</v>
       </c>
       <c r="Q6">
-        <v>7.00957997190917</v>
+        <v>69.78079405102066</v>
       </c>
       <c r="R6">
-        <v>7.00957997190917</v>
+        <v>628.027146459186</v>
       </c>
       <c r="S6">
-        <v>0.0298708534871495</v>
+        <v>0.2368660778417024</v>
       </c>
       <c r="T6">
-        <v>0.0298708534871495</v>
+        <v>0.2368660778417025</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -841,57 +841,57 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.408000613680069</v>
+        <v>4.058683666666667</v>
       </c>
       <c r="H7">
-        <v>0.408000613680069</v>
+        <v>12.176051</v>
       </c>
       <c r="I7">
-        <v>0.03603597188194495</v>
+        <v>0.2885676612136944</v>
       </c>
       <c r="J7">
-        <v>0.03603597188194495</v>
+        <v>0.2885676612136945</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.54588762625404</v>
+        <v>3.609156666666667</v>
       </c>
       <c r="N7">
-        <v>3.54588762625404</v>
+        <v>10.82747</v>
       </c>
       <c r="O7">
-        <v>0.1710823400293624</v>
+        <v>0.1723099039328446</v>
       </c>
       <c r="P7">
-        <v>0.1710823400293624</v>
+        <v>0.1723099039328446</v>
       </c>
       <c r="Q7">
-        <v>1.446724327552212</v>
+        <v>14.64842521344111</v>
       </c>
       <c r="R7">
-        <v>1.446724327552212</v>
+        <v>131.83582692097</v>
       </c>
       <c r="S7">
-        <v>0.00616511839479545</v>
+        <v>0.04972306598185734</v>
       </c>
       <c r="T7">
-        <v>0.00616511839479545</v>
+        <v>0.04972306598185735</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.39791840694383</v>
+        <v>0.463315</v>
       </c>
       <c r="H8">
-        <v>2.39791840694383</v>
+        <v>1.389945</v>
       </c>
       <c r="I8">
-        <v>0.2117921331255275</v>
+        <v>0.03294115455541936</v>
       </c>
       <c r="J8">
-        <v>0.2117921331255275</v>
+        <v>0.03294115455541936</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>17.1803172271836</v>
+        <v>0.143611</v>
       </c>
       <c r="N8">
-        <v>17.1803172271836</v>
+        <v>0.430833</v>
       </c>
       <c r="O8">
-        <v>0.8289176599706376</v>
+        <v>0.006856337892517759</v>
       </c>
       <c r="P8">
-        <v>0.8289176599706376</v>
+        <v>0.006856337892517758</v>
       </c>
       <c r="Q8">
-        <v>41.19699891619774</v>
+        <v>0.06653713046500001</v>
       </c>
       <c r="R8">
-        <v>41.19699891619774</v>
+        <v>0.5988341741850001</v>
       </c>
       <c r="S8">
-        <v>0.175558239390602</v>
+        <v>0.0002258556862016058</v>
       </c>
       <c r="T8">
-        <v>0.175558239390602</v>
+        <v>0.0002258556862016057</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,303 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.463315</v>
+      </c>
+      <c r="H9">
+        <v>1.389945</v>
+      </c>
+      <c r="I9">
+        <v>0.03294115455541936</v>
+      </c>
+      <c r="J9">
+        <v>0.03294115455541936</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>17.192962</v>
+      </c>
+      <c r="N9">
+        <v>51.578886</v>
+      </c>
+      <c r="O9">
+        <v>0.8208337581746376</v>
+      </c>
+      <c r="P9">
+        <v>0.8208337581746377</v>
+      </c>
+      <c r="Q9">
+        <v>7.965757189029999</v>
+      </c>
+      <c r="R9">
+        <v>71.69181470126999</v>
+      </c>
+      <c r="S9">
+        <v>0.02703921169233646</v>
+      </c>
+      <c r="T9">
+        <v>0.02703921169233646</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>2.39791840694383</v>
-      </c>
-      <c r="H9">
-        <v>2.39791840694383</v>
-      </c>
-      <c r="I9">
-        <v>0.2117921331255275</v>
-      </c>
-      <c r="J9">
-        <v>0.2117921331255275</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>3.54588762625404</v>
-      </c>
-      <c r="N9">
-        <v>3.54588762625404</v>
-      </c>
-      <c r="O9">
-        <v>0.1710823400293624</v>
-      </c>
-      <c r="P9">
-        <v>0.1710823400293624</v>
-      </c>
-      <c r="Q9">
-        <v>8.502749207948927</v>
-      </c>
-      <c r="R9">
-        <v>8.502749207948927</v>
-      </c>
-      <c r="S9">
-        <v>0.03623389373492549</v>
-      </c>
-      <c r="T9">
-        <v>0.03623389373492549</v>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.463315</v>
+      </c>
+      <c r="H10">
+        <v>1.389945</v>
+      </c>
+      <c r="I10">
+        <v>0.03294115455541936</v>
+      </c>
+      <c r="J10">
+        <v>0.03294115455541936</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3.609156666666667</v>
+      </c>
+      <c r="N10">
+        <v>10.82747</v>
+      </c>
+      <c r="O10">
+        <v>0.1723099039328446</v>
+      </c>
+      <c r="P10">
+        <v>0.1723099039328446</v>
+      </c>
+      <c r="Q10">
+        <v>1.672176421016667</v>
+      </c>
+      <c r="R10">
+        <v>15.04958778915</v>
+      </c>
+      <c r="S10">
+        <v>0.005676087176881298</v>
+      </c>
+      <c r="T10">
+        <v>0.005676087176881298</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.463241333333333</v>
+      </c>
+      <c r="H11">
+        <v>7.389724</v>
+      </c>
+      <c r="I11">
+        <v>0.175133577519896</v>
+      </c>
+      <c r="J11">
+        <v>0.175133577519896</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.143611</v>
+      </c>
+      <c r="N11">
+        <v>0.430833</v>
+      </c>
+      <c r="O11">
+        <v>0.006856337892517759</v>
+      </c>
+      <c r="P11">
+        <v>0.006856337892517758</v>
+      </c>
+      <c r="Q11">
+        <v>0.3537485511213334</v>
+      </c>
+      <c r="R11">
+        <v>3.183736960092</v>
+      </c>
+      <c r="S11">
+        <v>0.001200774983801859</v>
+      </c>
+      <c r="T11">
+        <v>0.001200774983801859</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2.463241333333333</v>
+      </c>
+      <c r="H12">
+        <v>7.389724</v>
+      </c>
+      <c r="I12">
+        <v>0.175133577519896</v>
+      </c>
+      <c r="J12">
+        <v>0.175133577519896</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>17.192962</v>
+      </c>
+      <c r="N12">
+        <v>51.578886</v>
+      </c>
+      <c r="O12">
+        <v>0.8208337581746376</v>
+      </c>
+      <c r="P12">
+        <v>0.8208337581746377</v>
+      </c>
+      <c r="Q12">
+        <v>42.35041464082933</v>
+      </c>
+      <c r="R12">
+        <v>381.153731767464</v>
+      </c>
+      <c r="S12">
+        <v>0.1437555526182254</v>
+      </c>
+      <c r="T12">
+        <v>0.1437555526182255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.463241333333333</v>
+      </c>
+      <c r="H13">
+        <v>7.389724</v>
+      </c>
+      <c r="I13">
+        <v>0.175133577519896</v>
+      </c>
+      <c r="J13">
+        <v>0.175133577519896</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.609156666666667</v>
+      </c>
+      <c r="N13">
+        <v>10.82747</v>
+      </c>
+      <c r="O13">
+        <v>0.1723099039328446</v>
+      </c>
+      <c r="P13">
+        <v>0.1723099039328446</v>
+      </c>
+      <c r="Q13">
+        <v>8.89022387980889</v>
+      </c>
+      <c r="R13">
+        <v>80.01201491828</v>
+      </c>
+      <c r="S13">
+        <v>0.03017724991786867</v>
+      </c>
+      <c r="T13">
+        <v>0.03017724991786867</v>
       </c>
     </row>
   </sheetData>
